--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_165.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_165.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,163 +488,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1213235294117647</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['E', 'C', 'D', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(131.2, 136.34), (0.98, 6.14)]</t>
+          <t>[['F/3', 'Db', 'Eb', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.121020', '0:00:20.590861')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:05.118000', '0:01:10.637000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1699346405228758</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'E/3', 'A', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C', 'G']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(27.610855, 31.172811)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.090897, 18.241101)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:04.160000', '0:00:08.800000'), ('0:00:20.740000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:23.300000', '0:00:29.360000'), ('0:04:21.680000', '0:04:26.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3231707317073171</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'F#', 'B', 'B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.323076923076923</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(52.727278, 64.604285)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.544, 11.273)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03826728826728826</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2252747252747253</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['D/5', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
+          <t>[['B', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:16.525575', '0:00:23.735371')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:09.107074', '0:00:26.162131')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -647,68 +672,78 @@
           <t>jaah_52</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.06961382113821138</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1821138211382114</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F', 'F', 'F', 'F']]</t>
+          <t>[['Bb', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.67, 26.74)]</t>
+          <t>[['A', 'E', 'E/5', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.59, 7.77)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:03.470000', '0:01:09.910000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:59.907505', '0:01:05.886643')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -717,392 +752,392 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.86, 23.82)]</t>
+          <t>[['C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(49.0, 56.8)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05610859728506788</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(46.097, 54.196)]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05610859728506788</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.42, 12.14)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08830455259026687</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.300000', '0:00:11.340000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06474358974358974</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(49.708684, 51.76365)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.4, 16.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08557692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.642743, 31.49263)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(54.76, 62.82)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(68.54, 79.0)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06442307692307693</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'F:7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.56, 21.24)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(112.45, 113.17)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['C#:maj', 'G#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48), (9.06, 10.78)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/b7'], ['D/5', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A'], ['A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.439841, 35.781972), (124.702789, 130.612267)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(101.389275, 105.127688), (91.834264, 98.974002)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
